--- a/Docs/Assignment #3 - Develop your idea for profitable company/Blue Ocean Strategy Canvas.xlsx
+++ b/Docs/Assignment #3 - Develop your idea for profitable company/Blue Ocean Strategy Canvas.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bened\Google Drive\# Metropolia UAS\Software Business Start-Up\Assignment - develop your idea for profitable company\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bened\Google Drive\# Metropolia UAS\Software Business Start-Up\Assignment #3 - Develop your idea for profitable company\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -70,7 +70,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,6 +80,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -153,7 +160,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -163,6 +170,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1547,14 +1555,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1884,10 +1892,13 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="9"/>
+  </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
